--- a/HLR_report.xlsx
+++ b/HLR_report.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Khushi Tops\HLR_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3FD4E61-E90F-49E8-9907-23791E6C1707}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC48A086-0DFC-4716-A73A-D982C19F230A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2" xr2:uid="{BE2285D1-7B33-4ED8-8978-EE942C0E8DB5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="3" xr2:uid="{BE2285D1-7B33-4ED8-8978-EE942C0E8DB5}"/>
   </bookViews>
   <sheets>
     <sheet name="problem" sheetId="1" r:id="rId1"/>
     <sheet name="performance" sheetId="2" r:id="rId2"/>
     <sheet name="TOPS" sheetId="3" r:id="rId3"/>
+    <sheet name="standard" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="154">
   <si>
     <t>Functionality ID</t>
   </si>
@@ -354,13 +355,148 @@
   </si>
   <si>
     <t>Afetr click on search keywords  and typing word</t>
+  </si>
+  <si>
+    <t>URL:https://www.saucedemo.com</t>
+  </si>
+  <si>
+    <t>standard user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After entering url in address bar website opened succesfully </t>
+  </si>
+  <si>
+    <t>click on login button</t>
+  </si>
+  <si>
+    <t>after entering in login button new url is opened</t>
+  </si>
+  <si>
+    <t>URL:https://www.saucedemo.com/inventory.html</t>
+  </si>
+  <si>
+    <t>Click on side button</t>
+  </si>
+  <si>
+    <t>After click on side button all option shows is all items, about,logout &amp; reset app state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on all items option in side button  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on about  option in side button </t>
+  </si>
+  <si>
+    <t>After click on about option the data will be closed request for singing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on reset app stare in side button </t>
+  </si>
+  <si>
+    <t>side menu is hide</t>
+  </si>
+  <si>
+    <t>product detalis page is opend</t>
+  </si>
+  <si>
+    <t>URL:https://www.saucedemo.com/inventory-item.html?id=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Click on add to cart button</t>
+  </si>
+  <si>
+    <t>Product is add to cart and cart shows counting on cart button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on remove </t>
+  </si>
+  <si>
+    <t>product successfully removed from cart</t>
+  </si>
+  <si>
+    <t>click to back to prducts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">successfully return  to home page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on filter button </t>
+  </si>
+  <si>
+    <t>After click on filter and dragn drop button option all filter option are opened</t>
+  </si>
+  <si>
+    <t>Click on the filter options in price A to Z</t>
+  </si>
+  <si>
+    <t>After click on the filter options in price A to Z  work is properly</t>
+  </si>
+  <si>
+    <t>Click on the filter options in price Z to A</t>
+  </si>
+  <si>
+    <t>After click on the filter options in price Z to A work is properly</t>
+  </si>
+  <si>
+    <t>Click on the filter options in price (low to high)</t>
+  </si>
+  <si>
+    <t>After click on the filter options in price (low to high) work is properly</t>
+  </si>
+  <si>
+    <t>Click on the filter options in price (high to low)</t>
+  </si>
+  <si>
+    <t>After click on the filter options in price(high to low) work is properly</t>
+  </si>
+  <si>
+    <t>Click on arrow of droop down menu</t>
+  </si>
+  <si>
+    <t>URL:https://www.saucedemo.com/cart.html</t>
+  </si>
+  <si>
+    <t>click on cart button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cart page is opened in new url with product show addes to cart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on product name in cart page </t>
+  </si>
+  <si>
+    <t>it shows to product details page with  remove from cart buttopn option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shows from to checkout product, after filling from shows product overview option and with finish button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on finish button </t>
+  </si>
+  <si>
+    <t>click on in continue on after add the information</t>
+  </si>
+  <si>
+    <t>After click on the continue button details for shipment of product or prodct name are open</t>
+  </si>
+  <si>
+    <t>After click on finish button your order is successfully dispatched thank you message is display</t>
+  </si>
+  <si>
+    <t>Click on log out button</t>
+  </si>
+  <si>
+    <t>log out succesfully</t>
+  </si>
+  <si>
+    <t>URL:https://www.saucedemo.com/checkout-step-one.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,6 +549,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -453,7 +595,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -474,6 +616,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -791,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A875CB-B993-4807-83F3-AB64954D3DDD}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B62560B-D32F-4ED7-A077-FBC7EC181387}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1347,7 +1490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A027619-A064-4368-994F-AEF9C1412907}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -1653,4 +1796,363 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63DED79-F85C-4DFD-BFB7-E6F13EB2BAFB}">
+  <dimension ref="A1:H45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="96.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>101</v>
+      </c>
+      <c r="B11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>102</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>103</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>104</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>105</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>106</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>107</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>108</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>109</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>110</v>
+      </c>
+      <c r="B20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>111</v>
+      </c>
+      <c r="B21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>112</v>
+      </c>
+      <c r="B22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>113</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>114</v>
+      </c>
+      <c r="B24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>200</v>
+      </c>
+      <c r="B30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>201</v>
+      </c>
+      <c r="B31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>202</v>
+      </c>
+      <c r="B32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>300</v>
+      </c>
+      <c r="B37" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>301</v>
+      </c>
+      <c r="B38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>303</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>400</v>
+      </c>
+      <c r="B44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>401</v>
+      </c>
+      <c r="B45" t="s">
+        <v>147</v>
+      </c>
+      <c r="C45" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A36:C36"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{82430394-5F2F-4FD9-B4DE-84EBB9E516BE}"/>
+    <hyperlink ref="A9" r:id="rId2" xr:uid="{9C060AB8-2496-4A3F-9C7D-439F3A90842C}"/>
+    <hyperlink ref="A27" r:id="rId3" xr:uid="{4EEEF4FC-911E-4562-817D-90C40F0A6530}"/>
+    <hyperlink ref="A36" r:id="rId4" xr:uid="{EEA20C88-5D4C-4826-B957-5C68D3BC63E4}"/>
+    <hyperlink ref="A42" r:id="rId5" xr:uid="{49C37D7E-100B-4A5F-BCF6-F8E1974ADF76}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+</worksheet>
 </file>
--- a/HLR_report.xlsx
+++ b/HLR_report.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Khushi Tops\HLR_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC48A086-0DFC-4716-A73A-D982C19F230A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744354DF-BE7B-4CF4-9D3A-ABC0EFFF58CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="3" xr2:uid="{BE2285D1-7B33-4ED8-8978-EE942C0E8DB5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="4" xr2:uid="{BE2285D1-7B33-4ED8-8978-EE942C0E8DB5}"/>
   </bookViews>
   <sheets>
     <sheet name="problem" sheetId="1" r:id="rId1"/>
     <sheet name="performance" sheetId="2" r:id="rId2"/>
     <sheet name="TOPS" sheetId="3" r:id="rId3"/>
     <sheet name="standard" sheetId="4" r:id="rId4"/>
+    <sheet name="test_scenario" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="178">
   <si>
     <t>Functionality ID</t>
   </si>
@@ -490,13 +491,85 @@
   </si>
   <si>
     <t>URL:https://www.saucedemo.com/checkout-step-one.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Functionality id </t>
+  </si>
+  <si>
+    <t>Test summary</t>
+  </si>
+  <si>
+    <t>Test description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test data </t>
+  </si>
+  <si>
+    <t>Actual result</t>
+  </si>
+  <si>
+    <t>Check website url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While entering URL into addressbar is open the website </t>
+  </si>
+  <si>
+    <t>1)URL:https://www.saucedemo.com 2) press enter key</t>
+  </si>
+  <si>
+    <t>As per excpected result</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> check sigin menu</t>
+  </si>
+  <si>
+    <t>whille clicking in sigin menu its open  the signing page</t>
+  </si>
+  <si>
+    <t>1)URL:https;//www.saucedemo.com 2)press enter key                                       3)click in signin menu</t>
+  </si>
+  <si>
+    <t>Check dashboard menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whille clicking on that menu its refresh/open the home page </t>
+  </si>
+  <si>
+    <t>1)URL:https://www.saucedemo.com/inventory.html                                                2) press enter key                                      3) click on signin menu                            4) click on signin button                          5) click on dashboard menu</t>
+  </si>
+  <si>
+    <t>Click on add to cart button</t>
+  </si>
+  <si>
+    <t>While clicking on add top cart button, product remove &amp; back to products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) URL:https://www.saucedemo.com/inventory-item.html?id=4                          2)press enter key                                       3) click on signin menu                            4) click on signin button                          5) click on dashboard menu                   6) click on add to cart button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">While clicking on product name in cart to page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)URL:https://www.saucedemo.com/cart.html                                                             2)press enter key                                               3) click on signin menu                                   4) click on signin button                          5)click on dashboard menu                    6) click on add to cart button                 7) click on product name in cart page </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> While clicking on in continue on after add the information</t>
+  </si>
+  <si>
+    <t>1)URL:https://www.saucedemo.com/checkout-step-one.html                              2) press enter key                                      3)click on signin menu                             4) click on signin button                            5) click on dashboard menu                   6)click on add to cart button                  7)click on product name in cart page 8)click on on continue on after add the information</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -555,6 +628,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -595,7 +682,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -604,6 +691,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -616,7 +704,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -624,6 +726,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF1608D0"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -946,11 +1053,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
@@ -964,11 +1071,11 @@
       </c>
     </row>
     <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1208,11 +1315,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
@@ -1226,11 +1333,11 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1502,12 +1609,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1521,11 +1628,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1800,10 +1907,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63DED79-F85C-4DFD-BFB7-E6F13EB2BAFB}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1814,16 +1921,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1837,11 +1944,11 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1866,11 +1973,11 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1920,10 +2027,10 @@
       <c r="A15">
         <v>105</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="8" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1931,10 +2038,10 @@
       <c r="A16">
         <v>106</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="8" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1942,7 +2049,7 @@
       <c r="A17">
         <v>107</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="8" t="s">
         <v>130</v>
       </c>
       <c r="C17" t="s">
@@ -1964,7 +2071,7 @@
       <c r="A19">
         <v>109</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="8" t="s">
         <v>132</v>
       </c>
       <c r="C19" t="s">
@@ -2028,131 +2135,304 @@
     </row>
     <row r="26" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>200</v>
+      </c>
+      <c r="B29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B30" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C30" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B31" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>202</v>
-      </c>
-      <c r="B32" t="s">
-        <v>128</v>
-      </c>
-      <c r="C32" t="s">
         <v>129</v>
       </c>
     </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+    </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
+      <c r="A36">
+        <v>300</v>
+      </c>
+      <c r="B36" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B37" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C37" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B38" t="s">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>303</v>
-      </c>
-      <c r="B39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>400</v>
+      </c>
+      <c r="B43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C44" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>401</v>
-      </c>
-      <c r="B45" t="s">
-        <v>147</v>
-      </c>
-      <c r="C45" t="s">
         <v>150</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A41:C41"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A34:C34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{82430394-5F2F-4FD9-B4DE-84EBB9E516BE}"/>
     <hyperlink ref="A9" r:id="rId2" xr:uid="{9C060AB8-2496-4A3F-9C7D-439F3A90842C}"/>
     <hyperlink ref="A27" r:id="rId3" xr:uid="{4EEEF4FC-911E-4562-817D-90C40F0A6530}"/>
-    <hyperlink ref="A36" r:id="rId4" xr:uid="{EEA20C88-5D4C-4826-B957-5C68D3BC63E4}"/>
-    <hyperlink ref="A42" r:id="rId5" xr:uid="{49C37D7E-100B-4A5F-BCF6-F8E1974ADF76}"/>
+    <hyperlink ref="A41" r:id="rId4" xr:uid="{49C37D7E-100B-4A5F-BCF6-F8E1974ADF76}"/>
+    <hyperlink ref="A34" r:id="rId5" xr:uid="{C0D533E4-EECB-45B6-9590-53DBD592543A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66FC39A-51FA-4596-9B78-E50828D1E40A}">
+  <dimension ref="A2:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>200</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>300</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>43</v>
+      </c>
+      <c r="B9">
+        <v>400</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="G9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/HLR_report.xlsx
+++ b/HLR_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Khushi Tops\HLR_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744354DF-BE7B-4CF4-9D3A-ABC0EFFF58CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BA3E29-B76D-4081-9436-161672ACAB49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="4" xr2:uid="{BE2285D1-7B33-4ED8-8978-EE942C0E8DB5}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="5" xr2:uid="{BE2285D1-7B33-4ED8-8978-EE942C0E8DB5}"/>
   </bookViews>
   <sheets>
     <sheet name="problem" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="TOPS" sheetId="3" r:id="rId3"/>
     <sheet name="standard" sheetId="4" r:id="rId4"/>
     <sheet name="test_scenario" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="190">
   <si>
     <t>Functionality ID</t>
   </si>
@@ -520,9 +521,6 @@
     <t xml:space="preserve">While entering URL into addressbar is open the website </t>
   </si>
   <si>
-    <t>1)URL:https://www.saucedemo.com 2) press enter key</t>
-  </si>
-  <si>
     <t>As per excpected result</t>
   </si>
   <si>
@@ -541,35 +539,74 @@
     <t xml:space="preserve">whille clicking on that menu its refresh/open the home page </t>
   </si>
   <si>
-    <t>1)URL:https://www.saucedemo.com/inventory.html                                                2) press enter key                                      3) click on signin menu                            4) click on signin button                          5) click on dashboard menu</t>
-  </si>
-  <si>
     <t>Click on add to cart button</t>
   </si>
   <si>
     <t>While clicking on add top cart button, product remove &amp; back to products</t>
   </si>
   <si>
-    <t xml:space="preserve">1) URL:https://www.saucedemo.com/inventory-item.html?id=4                          2)press enter key                                       3) click on signin menu                            4) click on signin button                          5) click on dashboard menu                   6) click on add to cart button </t>
-  </si>
-  <si>
     <t xml:space="preserve">While clicking on product name in cart to page </t>
   </si>
   <si>
-    <t xml:space="preserve">1)URL:https://www.saucedemo.com/cart.html                                                             2)press enter key                                               3) click on signin menu                                   4) click on signin button                          5)click on dashboard menu                    6) click on add to cart button                 7) click on product name in cart page </t>
-  </si>
-  <si>
     <t xml:space="preserve"> While clicking on in continue on after add the information</t>
   </si>
   <si>
-    <t>1)URL:https://www.saucedemo.com/checkout-step-one.html                              2) press enter key                                      3)click on signin menu                             4) click on signin button                            5) click on dashboard menu                   6)click on add to cart button                  7)click on product name in cart page 8)click on on continue on after add the information</t>
+    <t>Test case id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test case name </t>
+  </si>
+  <si>
+    <t>Precondition</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Expected result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Browser, internet, website condison is working process</t>
+  </si>
+  <si>
+    <t>1)URL:https://www.saucedemo.com                                                   2) press enter key</t>
+  </si>
+  <si>
+    <t>To open website</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>1)URL:https://www.saucedemo.com/inventory.html                                                     2) press enter key                                         3) click on signin menu                               4) click on signin button                             5) click on dashboard menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) URL:https://www.saucedemo.com/inventory-item.html?id=4                              2)press enter key                                          3) click on signin menu                               4) click on signin button                             5) click on dashboard menu                     6) click on add to cart button </t>
+  </si>
+  <si>
+    <t>1)URL:https://www.saucedemo.com            2) press enter key</t>
+  </si>
+  <si>
+    <t>1)URL:https://www.saucedemo.com/inventory.html                                                                 2) press enter key                                            3) click on signin menu                                     4) click on signin button                                5) click on dashboard menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) URL:https://www.saucedemo.com/inventory-item.html?id=4                                             2)press enter key                                             3) click on signin menu                                  4) click on signin button                                5) click on dashboard menu                          6) click on add to cart button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)URL:https://www.saucedemo.com/cart.html                                                             2)press enter key                                               3) click on signin menu                                   4) click on signin button                                5)click on dashboard menu                           6) click on add to cart button                        7) click on product name in cart page </t>
+  </si>
+  <si>
+    <t>1)URL:https://www.saucedemo.com/checkout-step-one.html                                                 2) press enter key                                            3)click on signin menu                                   4) click on signin button                                5) click on dashboard menu                          6)click on add to cart button                         7)click on product name in cart page           8)click on on continue on after add the information</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -642,6 +679,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -682,7 +726,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -692,6 +736,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -704,20 +761,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1053,11 +1098,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
@@ -1071,11 +1116,11 @@
       </c>
     </row>
     <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1315,11 +1360,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
@@ -1333,11 +1378,11 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1597,7 +1642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A027619-A064-4368-994F-AEF9C1412907}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -1609,12 +1654,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1628,11 +1673,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1909,8 +1954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63DED79-F85C-4DFD-BFB7-E6F13EB2BAFB}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:C41"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1921,16 +1966,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1944,11 +1989,11 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1973,11 +2018,11 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -2135,11 +2180,11 @@
     </row>
     <row r="26" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -2175,16 +2220,16 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -2220,11 +2265,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -2273,8 +2318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66FC39A-51FA-4596-9B78-E50828D1E40A}">
   <dimension ref="A2:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2283,40 +2328,40 @@
     <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="11" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>161</v>
@@ -2324,11 +2369,11 @@
       <c r="D4" t="s">
         <v>162</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="G4" t="s">
         <v>163</v>
-      </c>
-      <c r="G4" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2339,16 +2384,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" t="s">
         <v>165</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>167</v>
-      </c>
       <c r="G5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2359,16 +2404,16 @@
         <v>101</v>
       </c>
       <c r="C6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>170</v>
+      <c r="E6" s="14" t="s">
+        <v>186</v>
       </c>
       <c r="G6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2378,17 +2423,17 @@
       <c r="B7">
         <v>200</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>173</v>
+      <c r="C7" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>187</v>
       </c>
       <c r="G7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="123" customHeight="1" x14ac:dyDescent="0.25">
@@ -2398,17 +2443,17 @@
       <c r="B8">
         <v>300</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>175</v>
+      <c r="D8" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>188</v>
       </c>
       <c r="G8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="150" x14ac:dyDescent="0.25">
@@ -2418,17 +2463,235 @@
       <c r="B9">
         <v>400</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="G9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89C6402-E3DF-4A40-90CF-FE0F350508DC}">
+  <dimension ref="A2:J10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="G2" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I2" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="I4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>164</v>
+      </c>
+      <c r="D5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="H5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I5" t="s">
+        <v>163</v>
+      </c>
+      <c r="J5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="H6" t="s">
+        <v>181</v>
+      </c>
+      <c r="I6" t="s">
+        <v>163</v>
+      </c>
+      <c r="J6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>200</v>
+      </c>
+      <c r="C7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="H7" t="s">
+        <v>181</v>
+      </c>
+      <c r="I7" t="s">
+        <v>163</v>
+      </c>
+      <c r="J7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>300</v>
+      </c>
+      <c r="C8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>43</v>
+      </c>
+      <c r="B9">
+        <v>400</v>
+      </c>
+      <c r="C9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="E10" s="14" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/HLR_report.xlsx
+++ b/HLR_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Khushi Tops\HLR_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BA3E29-B76D-4081-9436-161672ACAB49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3736A181-9677-4FE9-ACA9-E1AC155106A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="5" xr2:uid="{BE2285D1-7B33-4ED8-8978-EE942C0E8DB5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="5" xr2:uid="{BE2285D1-7B33-4ED8-8978-EE942C0E8DB5}"/>
   </bookViews>
   <sheets>
     <sheet name="problem" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="TOPS" sheetId="3" r:id="rId3"/>
     <sheet name="standard" sheetId="4" r:id="rId4"/>
     <sheet name="test_scenario" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="Test_case" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="192">
   <si>
     <t>Functionality ID</t>
   </si>
@@ -600,13 +600,19 @@
   </si>
   <si>
     <t>1)URL:https://www.saucedemo.com/checkout-step-one.html                                                 2) press enter key                                            3)click on signin menu                                   4) click on signin button                                5) click on dashboard menu                          6)click on add to cart button                         7)click on product name in cart page           8)click on on continue on after add the information</t>
+  </si>
+  <si>
+    <t>TEST_CASE</t>
+  </si>
+  <si>
+    <t>TEST_SCENARIO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -680,8 +686,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="26"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -726,7 +748,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -748,7 +770,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -764,6 +785,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1098,11 +1126,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
@@ -1116,11 +1144,11 @@
       </c>
     </row>
     <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1360,11 +1388,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
@@ -1378,11 +1406,11 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1654,12 +1682,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1673,11 +1701,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1966,16 +1994,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1989,11 +2017,11 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -2018,11 +2046,11 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -2180,11 +2208,11 @@
     </row>
     <row r="26" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -2220,11 +2248,11 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
@@ -2265,11 +2293,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -2316,10 +2344,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66FC39A-51FA-4596-9B78-E50828D1E40A}">
-  <dimension ref="A2:G9"/>
+  <dimension ref="A2:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2333,150 +2361,173 @@
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A6" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B6" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C6" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D6" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E6" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F6" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G6" s="11" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="8" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B8">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C8" t="s">
         <v>161</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D8" t="s">
         <v>162</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E8" s="13" t="s">
         <v>185</v>
-      </c>
-      <c r="G4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="G5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>101</v>
-      </c>
-      <c r="C6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="G6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>29</v>
-      </c>
-      <c r="B7">
-        <v>200</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="G7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>36</v>
-      </c>
-      <c r="B8">
-        <v>300</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>188</v>
       </c>
       <c r="G8" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>400</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>172</v>
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" t="s">
+        <v>165</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="G9" t="s">
         <v>163</v>
       </c>
     </row>
+    <row r="10" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>101</v>
+      </c>
+      <c r="C10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="G10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>200</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="G11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>300</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="G12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>43</v>
+      </c>
+      <c r="B13">
+        <v>400</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="G13" t="s">
+        <v>163</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:G3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2484,217 +2535,278 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89C6402-E3DF-4A40-90CF-FE0F350508DC}">
-  <dimension ref="A2:J10"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="67.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35" customWidth="1"/>
-    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="15" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+    </row>
+    <row r="6" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B6" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C6" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D6" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E6" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F6" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G6" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H6" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I6" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J6" s="22" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="8" spans="1:10" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B8">
         <v>0</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C8" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D8" s="10" t="s">
         <v>162</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="I4" t="s">
-        <v>163</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="H5" t="s">
-        <v>181</v>
-      </c>
-      <c r="I5" t="s">
-        <v>163</v>
-      </c>
-      <c r="J5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>101</v>
-      </c>
-      <c r="C6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="H6" t="s">
-        <v>181</v>
-      </c>
-      <c r="I6" t="s">
-        <v>163</v>
-      </c>
-      <c r="J6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>29</v>
-      </c>
-      <c r="B7">
-        <v>200</v>
-      </c>
-      <c r="C7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="H7" t="s">
-        <v>181</v>
-      </c>
-      <c r="I7" t="s">
-        <v>163</v>
-      </c>
-      <c r="J7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>36</v>
-      </c>
-      <c r="B8">
-        <v>300</v>
-      </c>
-      <c r="C8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" t="s">
-        <v>171</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>179</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="I8" t="s">
+        <v>163</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="D9" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="F9" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="H9" t="s">
+        <v>181</v>
+      </c>
+      <c r="I9" t="s">
+        <v>163</v>
+      </c>
+      <c r="J9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>101</v>
+      </c>
+      <c r="C10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" t="s">
+        <v>168</v>
+      </c>
       <c r="E10" s="14" t="s">
         <v>179</v>
       </c>
+      <c r="F10" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="H10" t="s">
+        <v>181</v>
+      </c>
+      <c r="I10" t="s">
+        <v>163</v>
+      </c>
+      <c r="J10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>200</v>
+      </c>
+      <c r="C11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="H11" t="s">
+        <v>181</v>
+      </c>
+      <c r="I11" t="s">
+        <v>163</v>
+      </c>
+      <c r="J11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>300</v>
+      </c>
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" t="s">
+        <v>171</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="H12" t="s">
+        <v>181</v>
+      </c>
+      <c r="I12" t="s">
+        <v>163</v>
+      </c>
+      <c r="J12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>43</v>
+      </c>
+      <c r="B13">
+        <v>400</v>
+      </c>
+      <c r="C13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="H13" t="s">
+        <v>181</v>
+      </c>
+      <c r="I13" t="s">
+        <v>163</v>
+      </c>
+      <c r="J13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E14" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/HLR_report.xlsx
+++ b/HLR_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Khushi Tops\HLR_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3736A181-9677-4FE9-ACA9-E1AC155106A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5A8073-0EC5-4AB3-A616-AECE358C9530}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="5" xr2:uid="{BE2285D1-7B33-4ED8-8978-EE942C0E8DB5}"/>
   </bookViews>
@@ -770,6 +770,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -791,7 +792,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1114,8 +1114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A875CB-B993-4807-83F3-AB64954D3DDD}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,11 +1126,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
@@ -1144,11 +1144,11 @@
       </c>
     </row>
     <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1376,7 +1376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B62560B-D32F-4ED7-A077-FBC7EC181387}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -1388,11 +1388,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
@@ -1406,11 +1406,11 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1682,12 +1682,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1701,11 +1701,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1994,16 +1994,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2017,11 +2017,11 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -2046,11 +2046,11 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -2208,11 +2208,11 @@
     </row>
     <row r="26" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -2248,11 +2248,11 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
@@ -2293,11 +2293,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -2362,24 +2362,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
@@ -2537,8 +2537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89C6402-E3DF-4A40-90CF-FE0F350508DC}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J3"/>
+    <sheetView tabSelected="1" topLeftCell="D3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2556,72 +2556,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
     </row>
     <row r="6" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="15" t="s">
         <v>178</v>
       </c>
     </row>
